--- a/odkx/app/config/tables/ento_livestock/forms/ento_livestock/ento_livestock.xlsx
+++ b/odkx/app/config/tables/ento_livestock/forms/ento_livestock/ento_livestock.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="229">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -126,23 +126,7 @@
     <t xml:space="preserve">ABC-123</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">not(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">selected(data('rand_selected'), 'no'))</t>
-    </r>
+    <t xml:space="preserve">not(selected(data('rand_selected'), 'no'))</t>
   </si>
   <si>
     <t xml:space="preserve">end if</t>
@@ -151,6 +135,15 @@
     <t xml:space="preserve">livestock_in_enclosure</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('livestock_in_enclosure'), 'no')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">livestock_in_enclosure_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit section</t>
+  </si>
+  <si>
     <t xml:space="preserve">part2_h2</t>
   </si>
   <si>
@@ -166,9 +159,6 @@
     <t xml:space="preserve">ic_no</t>
   </si>
   <si>
-    <t xml:space="preserve">// TODO: what to do here</t>
-  </si>
-  <si>
     <t xml:space="preserve">part2b_h3</t>
   </si>
   <si>
@@ -211,15 +201,15 @@
     <t xml:space="preserve">selected(data('qb3_cow'), 'no')</t>
   </si>
   <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
     <t xml:space="preserve">qb3a_cow</t>
   </si>
   <si>
     <t xml:space="preserve">qb3a</t>
   </si>
   <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
     <t xml:space="preserve">qb3b_cow</t>
   </si>
   <si>
@@ -658,6 +648,9 @@
     <t xml:space="preserve">Has livestock been kept in the enclosure for at least the past three months?</t>
   </si>
   <si>
+    <t xml:space="preserve">Select neighboring enclosure</t>
+  </si>
+  <si>
     <t xml:space="preserve">A1. Has the owner of the livestock enclosure, or their representative: read, understood and signed the informed consent agreeing to answer this questionnaire and allowing the BOHEMIA field team to do CDC light trapping on their property?</t>
   </si>
   <si>
@@ -715,10 +708,10 @@
     <t xml:space="preserve">C4. What is the area of the livestock enclosure?</t>
   </si>
   <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
+    <t xml:space="preserve">Width (meter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length (meter)</t>
   </si>
 </sst>
 </file>
@@ -728,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -763,11 +756,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -849,10 +837,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -892,19 +880,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.2"/>
@@ -1057,926 +1045,886 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>17</v>
+      <c r="C14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>20</v>
+      <c r="A15" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>38</v>
+      <c r="A16" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
+      <c r="C20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="0" t="n">
+      <c r="F30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N30" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="D31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>50</v>
       </c>
+      <c r="M33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>34</v>
+      <c r="C43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>64</v>
+      <c r="A46" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>64</v>
+      <c r="B49" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>34</v>
+      <c r="C53" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>71</v>
+      <c r="A56" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>71</v>
+      <c r="B59" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>34</v>
+      <c r="C63" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>78</v>
+      <c r="A66" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M69" s="0" t="s">
-        <v>78</v>
+      <c r="B69" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" s="0" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>34</v>
+      <c r="C73" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="M76" s="0" t="s">
-        <v>85</v>
+      <c r="A76" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L79" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>85</v>
+      <c r="B79" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" s="0" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>34</v>
+      <c r="C83" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>91</v>
+      <c r="A86" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L89" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M89" s="0" t="s">
-        <v>91</v>
+      <c r="B89" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L90" s="0" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>34</v>
+      <c r="C93" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="0" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F96" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M96" s="0" t="n">
+      <c r="F100" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M100" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N96" s="0" t="s">
+      <c r="N100" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="F101" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="0" t="s">
+      <c r="A104" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>102</v>
+      <c r="E105" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E107" s="0" t="s">
+      <c r="B110" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F107" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="F110" s="0" t="s">
-        <v>106</v>
+      <c r="E111" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>34</v>
+      <c r="F114" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="K118" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L118" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M118" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L119" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M119" s="0" t="n">
-        <v>1</v>
+      <c r="A118" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2002,22 +1950,22 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,10 +1973,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,208 +1984,208 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +2210,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -2271,7 +2219,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -2282,10 +2230,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2307,10 +2255,10 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -2322,121 +2270,121 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210326001</v>
+        <v>20210425001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -2458,13 +2406,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
@@ -2472,192 +2420,192 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,15 +2613,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,39 +2629,39 @@
         <v>21</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2669,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2677,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2685,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,95 +2693,95 @@
         <v>35</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,63 +2789,63 @@
         <v>60</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,15 +2853,23 @@
         <v>112</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
